--- a/medicine/Enfance/Bilboquet_(maison_d'édition)/Bilboquet_(maison_d'édition).xlsx
+++ b/medicine/Enfance/Bilboquet_(maison_d'édition)/Bilboquet_(maison_d'édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bilboquet_(maison_d%27%C3%A9dition)</t>
+          <t>Bilboquet_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Bilboquet est une maison d'édition française de littérature d'enfance et de jeunesse fondée en 1994 par  Christine-Marie Léveillé et Jean-René Gombert. Son siège est situé au 628, avenue du Grain d'Or 41350 Vineuil.
-Elle est gérée par la société Valbert (391-634-501) immatriculée le 08/11/1994[1].
+Elle est gérée par la société Valbert (391-634-501) immatriculée le 08/11/1994.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bilboquet_(maison_d%27%C3%A9dition)</t>
+          <t>Bilboquet_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bilboquet est fondée en septembre 1994 à Blois par Christine-Marie Léveillé et Jean-René Gombert[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bilboquet est fondée en septembre 1994 à Blois par Christine-Marie Léveillé et Jean-René Gombert.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bilboquet_(maison_d%27%C3%A9dition)</t>
+          <t>Bilboquet_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Les Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les collections sont au nombre de six : les Trésors, les Tout-petits, les Grands albums, les Messagers, les Cracontes et les Classiques.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bilboquet_(maison_d%27%C3%A9dition)</t>
+          <t>Bilboquet_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Les auteurs et les illustrateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les auteurs publiés par Bilboquet, il faut citer à titre d'exemple Éric Battut (http://www.viva.presse.fr/Un-ete-au-coeur-des-livres_724.html), Jérôme Ruillier, Jeanne-Marie Leprince de Beaumont, Yves Pinguilly.
 La maison d'édition Bilboquet fait appel à un grand nombre d'illustrateurs, au nombre desquels elle compte Isabelle Chatellard,Rébecca Dautremer, Stéphane Girel, Sara.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bilboquet_(maison_d%27%C3%A9dition)</t>
+          <t>Bilboquet_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bilboquet obtient le prix Sorcières, récompensant la meilleure œuvre littéraire pour la jeunesse, en 2010 pour La petite casserole d'Anatole d'Isabelle Carrier.
 </t>
